--- a/Sample Files/raw_abstracts.xlsx
+++ b/Sample Files/raw_abstracts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uvini/Desktop/ScholarQA/data/original_df/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ranul/Projects/ScholarQA/Sample Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F5F715-4E70-0B4E-B23E-A471A11AA4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD16E0C-6BC7-6040-B72F-725C1D394721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{BC880F30-87B0-EE49-9DA9-4946FCEF098B}"/>
   </bookViews>
@@ -274,7 +274,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$]yyyy/mm/dd;@" x16r2:formatCode16="[$-en-LK,1]yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="[$]yyyy/mm/dd;@" x16r2:formatCode16="[$-en-LK,1]yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -376,13 +376,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -723,10 +723,10 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G1:G1048576"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="24"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="23"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="47.1640625" style="3" customWidth="1"/>
@@ -738,7 +738,7 @@
     <col min="8" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="24">
       <c r="A1" s="6"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="204">
+    <row r="2" spans="1:7" ht="192">
       <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
@@ -993,7 +993,7 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" customWidth="1"/>
@@ -1044,7 +1044,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.33203125" customWidth="1"/>
   </cols>
